--- a/Modelos em Python/30_Erros_todo.xlsx
+++ b/Modelos em Python/30_Erros_todo.xlsx
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.58788055662032</v>
+        <v>5.925641778410664</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3783242231239256</v>
+        <v>0.4035511045378388</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1404145390180655</v>
+        <v>0.1494455552683305</v>
       </c>
     </row>
     <row r="8">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.673981269261516</v>
+        <v>6.665732544221105</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4466965224126261</v>
+        <v>0.4462438387139471</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1695649525418893</v>
+        <v>0.1694101025609389</v>
       </c>
     </row>
     <row r="10">

--- a/Modelos em Python/30_Erros_todo.xlsx
+++ b/Modelos em Python/30_Erros_todo.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pucpredu-my.sharepoint.com/personal/franchesco_sanches_pucpr_edu_br/Documents/Documents/GitHub/Mestre-Tchesko/Modelos em Python/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_2BB1D69C5B005C7887F8231159BC70F56E09FA8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFC91DA9-AAEA-4DF1-BD6A-D76FDD5189DE}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>sMAPE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>RRMSE</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>ARX</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>ARMA</t>
+  </si>
+  <si>
+    <t>ARIMA</t>
+  </si>
+  <si>
+    <t>SARIMA</t>
+  </si>
+  <si>
+    <t>ARIMAX</t>
+  </si>
+  <si>
+    <t>SARIMAX</t>
+  </si>
+  <si>
+    <t>Decision Tree Regressor</t>
+  </si>
+  <si>
+    <t>Random Forest Regressor</t>
+  </si>
+  <si>
+    <t>XGBRegressor</t>
+  </si>
+  <si>
+    <t>LGBMRegressor</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,226 +426,195 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>sMAPE</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>MAE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>RRMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>5.404441825389132</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3666287259262914</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1372190763086192</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>ARX</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6.682417817422428</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.4470844376728496</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1693880425360174</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>MA</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5.361778608930972</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.363962548995299</v>
-      </c>
-      <c r="D4" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>5.4044418253891324</v>
+      </c>
+      <c r="C2">
+        <v>0.36662872592629142</v>
+      </c>
+      <c r="D2">
+        <v>0.13721907630861921</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>6.6824178174224276</v>
+      </c>
+      <c r="C3">
+        <v>0.44708443767284961</v>
+      </c>
+      <c r="D3">
+        <v>0.16938804253601741</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>5.3617786089309716</v>
+      </c>
+      <c r="C4">
+        <v>0.36396254899529901</v>
+      </c>
+      <c r="D4">
         <v>0.1365590114348304</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>5.663937401002308</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3852960213627437</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1432469173407804</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5.558676330794077</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3771978997348751</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1407623071656248</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>SARIMA</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5.925641778410664</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.4035511045378388</v>
-      </c>
-      <c r="D7" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>5.6639374010023076</v>
+      </c>
+      <c r="C5">
+        <v>0.38529602136274371</v>
+      </c>
+      <c r="D5">
+        <v>0.14324691734078041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5.5586763307940767</v>
+      </c>
+      <c r="C6">
+        <v>0.37719789973487511</v>
+      </c>
+      <c r="D6">
+        <v>0.14076230716562479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>5.9256417784106636</v>
+      </c>
+      <c r="C7">
+        <v>0.40355110453783882</v>
+      </c>
+      <c r="D7">
         <v>0.1494455552683305</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>ARIMAX</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6.628182313654435</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4434885473283481</v>
-      </c>
-      <c r="D8" t="n">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>6.6281823136544347</v>
+      </c>
+      <c r="C8">
+        <v>0.44348854732834808</v>
+      </c>
+      <c r="D8">
         <v>0.1682045083951918</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>SARIMAX</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>6.665732544221105</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4462438387139471</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.1694101025609389</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>5.363708606419194</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4669047839131917</v>
-      </c>
-      <c r="D10" t="n">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>6.6657325442211048</v>
+      </c>
+      <c r="C9">
+        <v>0.44624383871394713</v>
+      </c>
+      <c r="D9">
+        <v>0.16941010256093891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>5.3637086064191939</v>
+      </c>
+      <c r="C10">
+        <v>0.46690478391319168</v>
+      </c>
+      <c r="D10">
         <v>0.1234941320096317</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Random Forest Regressor</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8.686293324061499</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6423070772940653</v>
-      </c>
-      <c r="D11" t="n">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>8.6862933240614986</v>
+      </c>
+      <c r="C11">
+        <v>0.64230707729406533</v>
+      </c>
+      <c r="D11">
         <v>0.2184765423561357</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>XGBRegressor</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8.840859873406682</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6553758496092805</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.2206370719842937</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>LGBMRegressor</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9.989279275441531</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7544193233252041</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.2458886180952022</v>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>8.8408598734066821</v>
+      </c>
+      <c r="C12">
+        <v>0.65537584960928053</v>
+      </c>
+      <c r="D12">
+        <v>0.22063707198429369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>9.9892792754415307</v>
+      </c>
+      <c r="C13">
+        <v>0.75441932332520412</v>
+      </c>
+      <c r="D13">
+        <v>0.24588861809520221</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/30_Erros_todo.xlsx
+++ b/Modelos em Python/30_Erros_todo.xlsx
@@ -1,93 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pucpredu-my.sharepoint.com/personal/franchesco_sanches_pucpr_edu_br/Documents/Documents/GitHub/Mestre-Tchesko/Modelos em Python/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_2BB1D69C5B005C7887F8231159BC70F56E09FA8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFC91DA9-AAEA-4DF1-BD6A-D76FDD5189DE}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>sMAPE</t>
-  </si>
-  <si>
-    <t>MAE</t>
-  </si>
-  <si>
-    <t>RRMSE</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>ARX</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>ARMA</t>
-  </si>
-  <si>
-    <t>ARIMA</t>
-  </si>
-  <si>
-    <t>SARIMA</t>
-  </si>
-  <si>
-    <t>ARIMAX</t>
-  </si>
-  <si>
-    <t>SARIMAX</t>
-  </si>
-  <si>
-    <t>Decision Tree Regressor</t>
-  </si>
-  <si>
-    <t>Random Forest Regressor</t>
-  </si>
-  <si>
-    <t>XGBRegressor</t>
-  </si>
-  <si>
-    <t>LGBMRegressor</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -102,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -426,195 +420,226 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>5.4044418253891324</v>
-      </c>
-      <c r="C2">
-        <v>0.36662872592629142</v>
-      </c>
-      <c r="D2">
-        <v>0.13721907630861921</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>6.6824178174224276</v>
-      </c>
-      <c r="C3">
-        <v>0.44708443767284961</v>
-      </c>
-      <c r="D3">
-        <v>0.16938804253601741</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>5.3617786089309716</v>
-      </c>
-      <c r="C4">
-        <v>0.36396254899529901</v>
-      </c>
-      <c r="D4">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>sMAPE</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>RRMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5.404441825389132</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3666287259262914</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1372190763086192</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>ARX</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6.682417817422428</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4470844376728496</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1693880425360174</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5.361778608930972</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.363962548995299</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.1365590114348304</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>5.6639374010023076</v>
-      </c>
-      <c r="C5">
-        <v>0.38529602136274371</v>
-      </c>
-      <c r="D5">
-        <v>0.14324691734078041</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>5.5586763307940767</v>
-      </c>
-      <c r="C6">
-        <v>0.37719789973487511</v>
-      </c>
-      <c r="D6">
-        <v>0.14076230716562479</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>5.9256417784106636</v>
-      </c>
-      <c r="C7">
-        <v>0.40355110453783882</v>
-      </c>
-      <c r="D7">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>ARMA</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5.663937401002308</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3852960213627437</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1432469173407804</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>ARIMA</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5.558676330794077</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3771978997348751</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1407623071656248</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>SARIMA</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.925641778410664</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4035511045378388</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.1494455552683305</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>6.6281823136544347</v>
-      </c>
-      <c r="C8">
-        <v>0.44348854732834808</v>
-      </c>
-      <c r="D8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>ARIMAX</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.628182313654435</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4434885473283481</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.1682045083951918</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>6.6657325442211048</v>
-      </c>
-      <c r="C9">
-        <v>0.44624383871394713</v>
-      </c>
-      <c r="D9">
-        <v>0.16941010256093891</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>5.3637086064191939</v>
-      </c>
-      <c r="C10">
-        <v>0.46690478391319168</v>
-      </c>
-      <c r="D10">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>SARIMAX</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.665732544221105</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4462438387139471</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1694101025609389</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Decision Tree Regressor</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.363708606419194</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4669047839131917</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.1234941320096317</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>8.6862933240614986</v>
-      </c>
-      <c r="C11">
-        <v>0.64230707729406533</v>
-      </c>
-      <c r="D11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Random Forest Regressor</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8.686293324061499</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6423070772940653</v>
+      </c>
+      <c r="D11" t="n">
         <v>0.2184765423561357</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>8.8408598734066821</v>
-      </c>
-      <c r="C12">
-        <v>0.65537584960928053</v>
-      </c>
-      <c r="D12">
-        <v>0.22063707198429369</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>9.9892792754415307</v>
-      </c>
-      <c r="C13">
-        <v>0.75441932332520412</v>
-      </c>
-      <c r="D13">
-        <v>0.24588861809520221</v>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>XGBRegressor</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8.840859873406682</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6553758496092805</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2206370719842937</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>LGBMRegressor</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9.989279275441531</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7544193233252041</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2458886180952022</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/30_Erros_todo.xlsx
+++ b/Modelos em Python/30_Erros_todo.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.404441825389132</v>
+        <v>6.658098718294565</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3666287259262914</v>
+        <v>0.4276247872346309</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1372190763086192</v>
+        <v>0.1685003304178712</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.682417817422428</v>
+        <v>6.824276523630799</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4470844376728496</v>
+        <v>0.4369038330271908</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1693880425360174</v>
+        <v>0.173007334674094</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.361778608930972</v>
+        <v>6.567142058858115</v>
       </c>
       <c r="C4" t="n">
-        <v>0.363962548995299</v>
+        <v>0.4230219681191847</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1365590114348304</v>
+        <v>0.1660041157963373</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.663937401002308</v>
+        <v>6.659203028786688</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3852960213627437</v>
+        <v>0.4276006710123742</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1432469173407804</v>
+        <v>0.1685043320965696</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.558676330794077</v>
+        <v>6.603700634942414</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3771978997348751</v>
+        <v>0.4238756323123096</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1407623071656248</v>
+        <v>0.1669051661792881</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.925641778410664</v>
+        <v>6.713746168004654</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4035511045378388</v>
+        <v>0.4317382559727506</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1494455552683305</v>
+        <v>0.1696238575195624</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.628182313654435</v>
+        <v>6.77395295431346</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4434885473283481</v>
+        <v>0.4339375533263167</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1682045083951918</v>
+        <v>0.1721676174478781</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.665732544221105</v>
+        <v>6.794774941545814</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4462438387139471</v>
+        <v>0.4353282254570734</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1694101025609389</v>
+        <v>0.1725770228886074</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.363708606419194</v>
+        <v>6.601501568670119</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4669047839131917</v>
+        <v>0.5627180156425015</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1234941320096317</v>
+        <v>0.1573402187938888</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.686293324061499</v>
+        <v>12.23822687141445</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6423070772940653</v>
+        <v>0.8997376950167316</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2184765423561357</v>
+        <v>0.3192800619436769</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.840859873406682</v>
+        <v>12.90830892252997</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6553758496092805</v>
+        <v>0.9609392537481232</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2206370719842937</v>
+        <v>0.333215111698509</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.989279275441531</v>
+        <v>12.161694759044</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7544193233252041</v>
+        <v>0.8927615382010563</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2458886180952022</v>
+        <v>0.3174251470619612</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/30_Erros_todo.xlsx
+++ b/Modelos em Python/30_Erros_todo.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pucpredu-my.sharepoint.com/personal/franchesco_sanches_pucpr_edu_br/Documents/Documents/GitHub/Mestre-Tchesko/Modelos em Python/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2BB1D69C5B30DE3CAF792E11598600B271CFFA88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A939609F-B622-4DB8-8E58-5406CD0986F2}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>sMAPE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>RRMSE</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>ARX</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>ARMA</t>
+  </si>
+  <si>
+    <t>ARIMA</t>
+  </si>
+  <si>
+    <t>SARIMA</t>
+  </si>
+  <si>
+    <t>ARIMAX</t>
+  </si>
+  <si>
+    <t>SARIMAX</t>
+  </si>
+  <si>
+    <t>Decision Tree Regressor</t>
+  </si>
+  <si>
+    <t>Random Forest Regressor</t>
+  </si>
+  <si>
+    <t>XGBRegressor</t>
+  </si>
+  <si>
+    <t>LGBMRegressor</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,226 +426,193 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>sMAPE</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>MAE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>RRMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
         <v>6.658098718294565</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.4276247872346309</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1685003304178712</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>ARX</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6.824276523630799</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.4369038330271908</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.173007334674094</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>MA</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>6.567142058858115</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.4230219681191847</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1660041157963373</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6.659203028786688</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="C2">
+        <v>0.42762478723463088</v>
+      </c>
+      <c r="D2">
+        <v>0.16850033041787121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>6.8242765236307994</v>
+      </c>
+      <c r="C3">
+        <v>0.43690383302719082</v>
+      </c>
+      <c r="D3">
+        <v>0.17300733467409399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>6.5671420588581153</v>
+      </c>
+      <c r="C4">
+        <v>0.42302196811918469</v>
+      </c>
+      <c r="D4">
+        <v>0.16600411579633731</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>6.6592030287866883</v>
+      </c>
+      <c r="C5">
         <v>0.4276006710123742</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.1685043320965696</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>6.603700634942414</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.4238756323123096</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1669051661792881</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>SARIMA</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6.713746168004654</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.4317382559727506</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.1696238575195624</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>ARIMAX</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6.77395295431346</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4339375533263167</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.1721676174478781</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>SARIMAX</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>6.794774941545814</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4353282254570734</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.1725770228886074</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Decision Tree Regressor</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>6.601501568670119</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5627180156425015</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.1573402187938888</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Random Forest Regressor</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>12.23822687141445</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8997376950167316</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.3192800619436769</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>XGBRegressor</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>12.90830892252997</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9609392537481232</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.333215111698509</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>LGBMRegressor</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12.161694759044</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8927615382010563</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.3174251470619612</v>
+      <c r="D5">
+        <v>0.16850433209656959</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>6.6037006349424141</v>
+      </c>
+      <c r="C6">
+        <v>0.42387563231230962</v>
+      </c>
+      <c r="D6">
+        <v>0.16690516617928811</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>6.7137461680046542</v>
+      </c>
+      <c r="C7">
+        <v>0.43173825597275062</v>
+      </c>
+      <c r="D7">
+        <v>0.16962385751956241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>6.7739529543134598</v>
+      </c>
+      <c r="C8">
+        <v>0.43393755332631673</v>
+      </c>
+      <c r="D8">
+        <v>0.17216761744787809</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>6.7947749415458141</v>
+      </c>
+      <c r="C9">
+        <v>0.43532822545707339</v>
+      </c>
+      <c r="D9">
+        <v>0.17257702288860741</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>6.7717236105958261</v>
+      </c>
+      <c r="C10">
+        <v>0.57747364721891492</v>
+      </c>
+      <c r="D10">
+        <v>0.15824834622686809</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>12.00142375991256</v>
+      </c>
+      <c r="C11">
+        <v>0.87835372377949572</v>
+      </c>
+      <c r="D11">
+        <v>0.31447491438462388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>12.51312480757697</v>
+      </c>
+      <c r="C12">
+        <v>0.92467002483715599</v>
+      </c>
+      <c r="D12">
+        <v>0.32459188928948551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>12.18168506317703</v>
+      </c>
+      <c r="C13">
+        <v>0.8945614562630867</v>
+      </c>
+      <c r="D13">
+        <v>0.3177498485212974</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/30_Erros_todo.xlsx
+++ b/Modelos em Python/30_Erros_todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.08854874390487</v>
+        <v>12.04728319710377</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8862086718643224</v>
+        <v>0.8824817173734801</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3162428092486841</v>
+        <v>0.3153866766171816</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/30_Erros_todo.xlsx
+++ b/Modelos em Python/30_Erros_todo.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Decision Tree Regressor</t>
+          <t>DTR</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,17 +597,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Random Forest Regressor</t>
+          <t>RFR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.04728319710377</v>
+        <v>12.09321408704532</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8824817173734801</v>
+        <v>0.8866298971936659</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3153866766171816</v>
+        <v>0.3163420827336986</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/30_Erros_todo.xlsx
+++ b/Modelos em Python/30_Erros_todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.09321408704532</v>
+        <v>12.1039713975115</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8866298971936659</v>
+        <v>0.8875988658437489</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3163420827336986</v>
+        <v>0.316547315399362</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/30_Erros_todo.xlsx
+++ b/Modelos em Python/30_Erros_todo.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DTR</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,23 +597,23 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RFR</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.1039713975115</v>
+        <v>12.09384422215773</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8875988658437489</v>
+        <v>0.8866852669701543</v>
       </c>
       <c r="D11" t="n">
-        <v>0.316547315399362</v>
+        <v>0.3163426547567131</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>XGBRegressor</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -629,7 +629,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LGBMRegressor</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/Modelos em Python/30_Erros_todo.xlsx
+++ b/Modelos em Python/30_Erros_todo.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.658098718294565</v>
+        <v>6.656562372214643</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4276247872346309</v>
+        <v>0.4275245856248011</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1685003304178712</v>
+        <v>0.1684796064334109</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.792206443505236</v>
+        <v>6.817515636999135</v>
       </c>
       <c r="C3" t="n">
-        <v>0.43443845356259</v>
+        <v>0.4363978239472781</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1725793164326022</v>
+        <v>0.173258942709155</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.567142058858115</v>
+        <v>6.471213222930571</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4230219681191847</v>
+        <v>0.4223780755414461</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1660041157963373</v>
+        <v>0.1544575757787173</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.659203028786688</v>
+        <v>6.655202208352986</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4276006710123742</v>
+        <v>0.4274588989817932</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1685043320965696</v>
+        <v>0.1684605315570951</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.603700634942414</v>
+        <v>6.585811968252172</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4238756323123096</v>
+        <v>0.422653636960465</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1669051661792881</v>
+        <v>0.1663938827740823</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.713746168004654</v>
+        <v>6.738335979112501</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4317382559727506</v>
+        <v>0.4333381073883997</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1696238575195624</v>
+        <v>0.1700084266801643</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.818014643625675</v>
+        <v>6.781879770513235</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4356996547978617</v>
+        <v>0.4338316540333828</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1730980902939254</v>
+        <v>0.1724744796527272</v>
       </c>
     </row>
     <row r="9">
@@ -569,19 +569,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.795412584780001</v>
+        <v>6.82114750420847</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4347521046736657</v>
+        <v>0.4360458507566741</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1726938787291686</v>
+        <v>0.173313306020058</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>DTR</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,39 +597,39 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>RFR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.09384422215773</v>
+        <v>12.05716845290364</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8866852669701543</v>
+        <v>0.8833772338263896</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3163426547567131</v>
+        <v>0.3156052489253639</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>XGBRegressor</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12.41245619378974</v>
+        <v>12.35909692205798</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9156973370881457</v>
+        <v>0.9109612322400632</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3234156230375816</v>
+        <v>0.3222128674841053</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>LGBMRegressor</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/Modelos em Python/30_Erros_todo.xlsx
+++ b/Modelos em Python/30_Erros_todo.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.656562372214643</v>
+        <v>13.31837323216045</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4275245856248011</v>
+        <v>0.427751125950683</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1684796064334109</v>
+        <v>0.1685119423502912</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.817515636999135</v>
+        <v>13.63419463249499</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4363978239472781</v>
+        <v>0.4363874915059571</v>
       </c>
       <c r="D3" t="n">
-        <v>0.173258942709155</v>
+        <v>0.1732535035194108</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.471213222930571</v>
+        <v>12.64985874564939</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4223780755414461</v>
+        <v>0.4105045215806596</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1544575757787173</v>
+        <v>0.158953609265502</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.655202208352986</v>
+        <v>13.29200106466731</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4274588989817932</v>
+        <v>0.4269043237372352</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1684605315570951</v>
+        <v>0.1682619584634121</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.585811968252172</v>
+        <v>13.21733631098428</v>
       </c>
       <c r="C6" t="n">
-        <v>0.422653636960465</v>
+        <v>0.4241865413747326</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1663938827740823</v>
+        <v>0.166995363962914</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.738335979112501</v>
+        <v>13.50777361157239</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4333381073883997</v>
+        <v>0.4335926216397811</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1700084266801643</v>
+        <v>0.1700475879479075</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.781879770513235</v>
+        <v>13.56638319585009</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4338316540333828</v>
+        <v>0.4338878222806122</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1724744796527272</v>
+        <v>0.172505725771091</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.82114750420847</v>
+        <v>13.57206882705712</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4360458507566741</v>
+        <v>0.4339845102345961</v>
       </c>
       <c r="D9" t="n">
-        <v>0.173313306020058</v>
+        <v>0.1726084505779854</v>
       </c>
     </row>
     <row r="10">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.771723610595826</v>
+        <v>13.54344722119162</v>
       </c>
       <c r="C10" t="n">
         <v>0.5774736472189149</v>
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.05716845290364</v>
+        <v>24.1384069113921</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8833772338263896</v>
+        <v>0.8844596610742399</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3156052489253639</v>
+        <v>0.3158382807698197</v>
       </c>
     </row>
     <row r="12">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12.35909692205798</v>
+        <v>24.71819384411597</v>
       </c>
       <c r="C12" t="n">
         <v>0.9109612322400632</v>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12.20716447307711</v>
+        <v>24.41432894615423</v>
       </c>
       <c r="C13" t="n">
         <v>0.89696326641903</v>

--- a/Modelos em Python/30_Erros_todo.xlsx
+++ b/Modelos em Python/30_Erros_todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23.70757455914722</v>
+        <v>23.73602669853241</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8650627391970312</v>
+        <v>0.8663401243914169</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3114282871718717</v>
+        <v>0.3117164906234569</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/30_Erros_todo.xlsx
+++ b/Modelos em Python/30_Erros_todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23.73602669853241</v>
+        <v>23.72659592267785</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8663401243914169</v>
+        <v>0.865916460799298</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3117164906234569</v>
+        <v>0.3116206569051452</v>
       </c>
     </row>
     <row r="12">
